--- a/Hybrid/src/config/TestData.xlsx
+++ b/Hybrid/src/config/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>TCID</t>
   </si>
@@ -170,6 +170,87 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>Date_DOB</t>
+  </si>
+  <si>
+    <t>Month_DOB</t>
+  </si>
+  <si>
+    <t>Year_DOB</t>
+  </si>
+  <si>
+    <t>Afname</t>
+  </si>
+  <si>
+    <t>Alname</t>
+  </si>
+  <si>
+    <t>Acompany</t>
+  </si>
+  <si>
+    <t>A_address1</t>
+  </si>
+  <si>
+    <t>A_address2</t>
+  </si>
+  <si>
+    <t>Acity</t>
+  </si>
+  <si>
+    <t>Astate</t>
+  </si>
+  <si>
+    <t>Azip</t>
+  </si>
+  <si>
+    <t>Acountry</t>
+  </si>
+  <si>
+    <t>AAI</t>
+  </si>
+  <si>
+    <t>AhPhone</t>
+  </si>
+  <si>
+    <t>AmPhone</t>
+  </si>
+  <si>
+    <t>Aalias</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Hafeezpet</t>
+  </si>
+  <si>
+    <t>Kondapur</t>
+  </si>
+  <si>
+    <t>TechM</t>
+  </si>
+  <si>
+    <t>Ch</t>
+  </si>
+  <si>
+    <t>Bharat</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Pass1234</t>
   </si>
 </sst>
 </file>
@@ -881,10 +962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,9 +974,10 @@
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -908,8 +990,59 @@
       <c r="D1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -921,6 +1054,54 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>1987</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2">
+        <v>500049</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S2">
+        <v>1873849349</v>
+      </c>
+      <c r="T2">
+        <v>1236489976</v>
       </c>
     </row>
   </sheetData>
